--- a/7_ADMON_PROYECTO/BITACORAS/PARCIAL_3/BITACORA.xlsx
+++ b/7_ADMON_PROYECTO/BITACORAS/PARCIAL_3/BITACORA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliz\Downloads\documentacion\7_ADMON_PROYECTO\BITACORAS\PARCIAL_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliz\Desktop\repositorio\trunk\7_ADMON_PROYECTO\BITACORAS\PARCIAL_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t>Grupo:</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>6465@utcv.edu.mx</t>
+  </si>
+  <si>
+    <t>..\..\..\8_CIERRE\CIERRE_DE_ESCUELA_PRACTICA.pdf</t>
+  </si>
+  <si>
+    <t>..\..\..\5_PRUEBAS\RE_PRUE_UNITARIAS\RE_PRUE_UNITARIAS.docx</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1437,7 @@
   <dimension ref="B2:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1826,9 @@
       <c r="F21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="H21" s="29" t="s">
         <v>83</v>
       </c>
@@ -1865,6 +1873,9 @@
       </c>
       <c r="F23" s="23" t="s">
         <v>68</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="H23" s="29" t="s">
         <v>77</v>
@@ -2764,10 +2775,12 @@
     <hyperlink ref="H22" r:id="rId25"/>
     <hyperlink ref="H23" r:id="rId26"/>
     <hyperlink ref="H14" r:id="rId27"/>
+    <hyperlink ref="G23" r:id="rId28"/>
+    <hyperlink ref="G21" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId28"/>
-  <drawing r:id="rId29"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId30"/>
+  <drawing r:id="rId31"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/7_ADMON_PROYECTO/BITACORAS/PARCIAL_3/BITACORA.xlsx
+++ b/7_ADMON_PROYECTO/BITACORAS/PARCIAL_3/BITACORA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliz\Desktop\repositorio\trunk\7_ADMON_PROYECTO\BITACORAS\PARCIAL_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro\Desktop\Repositorio PcMax\trunk\7_ADMON_PROYECTO\BITACORAS\PARCIAL_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
   <si>
     <t>Grupo:</t>
   </si>
@@ -219,114 +219,48 @@
     <t>Ramírez Medina Elizabeth</t>
   </si>
   <si>
-    <t>Reunion con el equipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se reunio con el quipo para asignar el equipo de trabajo  </t>
-  </si>
-  <si>
     <t>..\..\..\1_DEFINICION\EQUIPO _DE_ TRABAJO.docx</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementacion </t>
-  </si>
-  <si>
-    <t>Realizacion del repositorio,cumpliendo los rubros indicados.</t>
-  </si>
-  <si>
     <t>https://github.com/makgustavo30/PCMAX</t>
   </si>
   <si>
     <t>..\..\..\1_DEFINICION\DESCRIPCION_DEL_PROYECTO.docx</t>
   </si>
   <si>
-    <t xml:space="preserve">implementacion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizacion de especificaion de requerimientos </t>
-  </si>
-  <si>
-    <t>descripcion de cada uno de los requisitos cumple con los criterios de validacion,de acuerdo al estandar IEE 830.</t>
-  </si>
-  <si>
     <t>..\..\..\2_REQUISITOS\ESPECIFICACION_DE_REQUERIMIENTO.doc</t>
   </si>
   <si>
-    <t>Realizacion de reporte de validacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validar el documento especificacion de requisitos y los defectos encontrados se registran en un reporte de validacion </t>
-  </si>
-  <si>
     <t>..\..\..\2_REQUISITOS\VA_ESPECIFICACION_DE_REQUISITOS\VA_ESPECIFICACION_DE _REQUISITOS.pdf</t>
   </si>
   <si>
-    <t>Realizar descripcion del proyecto</t>
-  </si>
-  <si>
-    <t>documento en el cual se redacta los antecedentes ,descripcion,objetivos (general y especificos),justificacion,alcanses,limitaciones,herramientas y marco teorico del proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar modelo fisico y logico de la base de datos </t>
-  </si>
-  <si>
-    <t>Se muestran las etapas bien definidas y demostrables del diseño fisico y logico</t>
-  </si>
-  <si>
-    <t>Elaboracion del diccionario de datos</t>
-  </si>
-  <si>
-    <t>Tener un diccionario de datos por cada   tabla definida del proyecto considiendo con la base de datos funcional</t>
-  </si>
-  <si>
     <t>..\..\..\..\..\Desktop\repositorio\trunk\3_ANALISIS_Y_DISENO\MO_DATOS\DICCIONARIO_DE_DATOS.xlsx</t>
   </si>
   <si>
     <t>implementar las restricciones en la base de datos .</t>
   </si>
   <si>
-    <t xml:space="preserve">Programacion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizacion el menu de acceso del administrador </t>
-  </si>
-  <si>
     <t>..\..\..\..\..\Desktop\repositorio\trunk\4_IMPLEMENTACION\CODIGO\pcmax2.0\src\vista\fxml\Menu.fxml</t>
   </si>
   <si>
     <t>..\..\..\..\..\Desktop\repositorio\trunk\4_IMPLEMENTACION\BASE_DE_DATOS\RESTRICCIONES_BD.sql</t>
   </si>
   <si>
-    <t>Realizacion pruebas unitarias</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cerrar escuelas practicas </t>
   </si>
   <si>
     <t>Reunirse con el cliente para mostrar al cliente el producto software .</t>
   </si>
   <si>
-    <t>acordar fecha,dia y hora para las reuniones respetando lo establecido</t>
-  </si>
-  <si>
     <t>05/05/215</t>
   </si>
   <si>
     <t>MINUTAS\Minuta-de-reunion-12-de-mayo.xlsx</t>
   </si>
   <si>
-    <t>Se definio los dias en los cuales podremos acudir reunion personal mente con el cliente y los cuales podremos comunicarnos por via electronica o telefonica.</t>
-  </si>
-  <si>
     <t>MINUTAS\Minuta-de-reunion-5-de-mayo.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Reunion con el cliente </t>
-  </si>
-  <si>
-    <t>seguimiento del proyecto Preparacion de entrega con respecto al parcial.</t>
-  </si>
-  <si>
     <t>MINUTAS\Minuta-de-reunion-29-de-mayo.xlsx</t>
   </si>
   <si>
@@ -355,6 +289,66 @@
   </si>
   <si>
     <t>..\..\..\5_PRUEBAS\RE_PRUE_UNITARIAS\RE_PRUE_UNITARIAS.docx</t>
+  </si>
+  <si>
+    <t>seguimiento del proyecto Preparación de entrega con respecto al parcial.</t>
+  </si>
+  <si>
+    <t>acordar fecha, día y hora para las reuniones respetando lo establecido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se reunion con el quipo para asignar el equipo de trabajo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunión con el cliente </t>
+  </si>
+  <si>
+    <t>Se definió los días en los cuales podremos acudir reunión personal mente con el cliente y los cuales podremos comunicarnos por vía electrónica o telefónica.</t>
+  </si>
+  <si>
+    <t>Realización del repositorio, cumpliendo los rubros indicados.</t>
+  </si>
+  <si>
+    <t>Realizar descripción del proyecto</t>
+  </si>
+  <si>
+    <t>documento en el cual se redacta los antecedentes ,descripcion,objetivos (general y específicos),justificacion,alcanses,limitaciones,herramientas y marco teórico del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar modelo físico y lógico de la base de datos </t>
+  </si>
+  <si>
+    <t>Se muestran las etapas bien definidas y demostrables del diseño físico y lógico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realización de especificación de requerimientos </t>
+  </si>
+  <si>
+    <t>descripción de cada uno de los requisitos cumple con los criterios de validacion,de acuerdo al estándar IEE 830.</t>
+  </si>
+  <si>
+    <t>Realización de reporte de validación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validar el documento especificación de requisitos y los defectos encontrados se registran en un reporte de validación </t>
+  </si>
+  <si>
+    <t>Elaboración del diccionario de datos</t>
+  </si>
+  <si>
+    <t>Tener un diccionario de datos por cada   tabla definida del proyecto coincidiendo con la base de datos funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implementación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realización el menú de acceso del administrador </t>
+  </si>
+  <si>
+    <t>Realización pruebas unitarias</t>
   </si>
 </sst>
 </file>
@@ -1436,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,22 +1521,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I9" s="13"/>
     </row>
@@ -1554,19 +1548,19 @@
         <v>42129</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I10" s="13"/>
     </row>
@@ -1578,19 +1572,19 @@
         <v>42136</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -1602,19 +1596,19 @@
         <v>42136</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I12" s="13"/>
     </row>
@@ -1635,10 +1629,10 @@
         <v>38</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I13" s="13"/>
     </row>
@@ -1650,19 +1644,19 @@
         <v>42142</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I14" s="13"/>
     </row>
@@ -1674,19 +1668,19 @@
         <v>42143</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I15" s="13"/>
     </row>
@@ -1698,19 +1692,19 @@
         <v>42149</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I16" s="13"/>
     </row>
@@ -1722,19 +1716,19 @@
         <v>42149</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I17" s="13"/>
     </row>
@@ -1746,19 +1740,19 @@
         <v>42150</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I18" s="13"/>
     </row>
@@ -1770,19 +1764,19 @@
         <v>42142</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I19" s="13"/>
     </row>
@@ -1794,19 +1788,19 @@
         <v>42143</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I20" s="13"/>
     </row>
@@ -1818,19 +1812,19 @@
         <v>42192</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="I21" s="13"/>
     </row>
@@ -1842,19 +1836,19 @@
         <v>42152</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I22" s="13"/>
     </row>
@@ -1866,19 +1860,19 @@
         <v>42223</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I23" s="13"/>
     </row>
